--- a/data/trans_camb/P11_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Estudios-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>3.973750454470387</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>13.96277256417532</v>
+        <v>13.96277256417533</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.345024410828113</v>
+        <v>-2.957819841661652</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.732049600495972</v>
+        <v>-4.137072506879858</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.401023827882996</v>
+        <v>4.29026947439951</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.442999405447863</v>
+        <v>1.378968158251557</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.908069487939332</v>
+        <v>2.466465086804883</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>12.66632530527722</v>
+        <v>12.68342679834652</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8540466467528509</v>
+        <v>1.014963222800917</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9530014605674101</v>
+        <v>0.6433372794598896</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>10.68870854457807</v>
+        <v>10.96778264037052</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.128502459506704</v>
+        <v>5.635142897369293</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.64291163511307</v>
+        <v>4.986282225072648</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.30741019249637</v>
+        <v>14.09144845315417</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.210319173149699</v>
+        <v>9.135892555058009</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.33774534486528</v>
+        <v>10.55665333144404</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>20.0912941694577</v>
+        <v>20.35322597501807</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.805960098538444</v>
+        <v>7.080441662243797</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.882398335067186</v>
+        <v>7.245502363860461</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>16.89628990658764</v>
+        <v>16.87604885392233</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.09712788052144793</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.3412832589514279</v>
+        <v>0.3412832589514282</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.09457489951872919</v>
+        <v>-0.08777982504269133</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1066849982160034</v>
+        <v>-0.1180836247478029</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1309044778942652</v>
+        <v>0.1283860419401973</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.03013105500894477</v>
+        <v>0.02887430988395951</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03865856847330707</v>
+        <v>0.05188410567406539</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2586448768193185</v>
+        <v>0.2597219959966195</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01952193755847827</v>
+        <v>0.02242408813308418</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.02164432965757906</v>
+        <v>0.01510879787972033</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2565219253001017</v>
+        <v>0.2603745899042759</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1625906996840762</v>
+        <v>0.1802909117937108</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1466981988541955</v>
+        <v>0.1578463305543285</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4530176337030479</v>
+        <v>0.4464075131888571</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2058305048240382</v>
+        <v>0.2044233877681823</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2299031909937436</v>
+        <v>0.2332092397641581</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4522661090196753</v>
+        <v>0.4580218590229822</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1719402340697014</v>
+        <v>0.1788977732910297</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1750349267733798</v>
+        <v>0.1840594370032884</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4294177535898979</v>
+        <v>0.4279617368100595</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>3.085368787926612</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>12.9715672408769</v>
+        <v>12.97156724087691</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8912568426611808</v>
+        <v>-0.8761034870724055</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.490422222110521</v>
+        <v>1.682212271159903</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10.98559131243744</v>
+        <v>10.75528074101606</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.2729739557774388</v>
+        <v>-0.3327618086552385</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.4785854887700071</v>
+        <v>-0.5720022879274221</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>9.950302331229453</v>
+        <v>9.858387067585982</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09041828149577928</v>
+        <v>-0.1120615951491759</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.293754232268311</v>
+        <v>1.212273338965453</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>11.10477246187986</v>
+        <v>11.18661880202833</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.592485172959872</v>
+        <v>3.515777523254407</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.121569296530361</v>
+        <v>5.985707068618868</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.01411301723128</v>
+        <v>15.82061535090903</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.353379636817987</v>
+        <v>5.158426686604649</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.064479029289762</v>
+        <v>4.791048356779302</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>15.37971092317169</v>
+        <v>15.00882373485497</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.658955680637029</v>
+        <v>3.688861065733579</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.867983934342554</v>
+        <v>4.953190587648646</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>14.81635627583209</v>
+        <v>14.78190844551801</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.2085569532498451</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.8768191838910681</v>
+        <v>0.8768191838910685</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.06830762712903345</v>
+        <v>-0.06575063744120339</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1155816291344337</v>
+        <v>0.1300433150900752</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.8411599464433064</v>
+        <v>0.8343536878942223</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.01329129470480975</v>
+        <v>-0.02078659248084425</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02427332736831788</v>
+        <v>-0.03002365681358562</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5065864393376548</v>
+        <v>0.495108506504933</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.005535603111298086</v>
+        <v>-0.008742946363297357</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.08287356887719047</v>
+        <v>0.0768328173850672</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.6929865850416137</v>
+        <v>0.7158783842957248</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3458945845848839</v>
+        <v>0.3379914354490019</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5885525292258864</v>
+        <v>0.5726265912339817</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.520682466997613</v>
+        <v>1.537045047676953</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3196338997618728</v>
+        <v>0.299236677178924</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2963297115633686</v>
+        <v>0.284713130022006</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9345394051442322</v>
+        <v>0.9029220680655121</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2577075372540591</v>
+        <v>0.2606905691501077</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3521473799135323</v>
+        <v>0.3577440661868896</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.069591668833201</v>
+        <v>1.075138080290046</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.4732138781772352</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8.49270163455901</v>
+        <v>8.492701634559007</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-5.813165072099093</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.857107682488801</v>
+        <v>-3.295056266122713</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.695846880723368</v>
+        <v>-4.325806835791776</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.435274051761293</v>
+        <v>4.133913422636538</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-10.31138935469963</v>
+        <v>-10.52310306026075</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.961188100845096</v>
+        <v>-5.409829750601229</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.56951687096654</v>
+        <v>5.194687440067994</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-5.561824996568479</v>
+        <v>-5.688568960142346</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.525538850875746</v>
+        <v>-3.578322785617186</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>6.179727653235698</v>
+        <v>6.169490952398023</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.571417207391222</v>
+        <v>5.020802989516464</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.262071571873979</v>
+        <v>3.483195746316234</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.52511482160739</v>
+        <v>12.41560039075396</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-1.289820774672693</v>
+        <v>-1.452356759345623</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.687328275608363</v>
+        <v>3.824162490164169</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>13.91858016808384</v>
+        <v>13.85390483581693</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.002226111385314</v>
+        <v>0.9789606670250803</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.578054943972543</v>
+        <v>2.538496488725065</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>12.24581635740804</v>
+        <v>11.95051158753906</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.04631816652939505</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.8312654948100238</v>
+        <v>0.8312654948100234</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.3440165009260929</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3273070281317829</v>
+        <v>-0.2882613165111814</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3680898811940574</v>
+        <v>-0.3606179389188287</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3397093522133797</v>
+        <v>0.3419970437867729</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5425704823152078</v>
+        <v>-0.5421547823734009</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3000808120391622</v>
+        <v>-0.2836558825143796</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2276110971978845</v>
+        <v>0.258916736894982</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.378903357504581</v>
+        <v>-0.3921411701571652</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2401368373423653</v>
+        <v>-0.237349330952482</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.4274865050944971</v>
+        <v>0.4054967641696239</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5651176388845277</v>
+        <v>0.6038893410072507</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4091422904534749</v>
+        <v>0.4160171810799941</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.517396796868328</v>
+        <v>1.532605692028748</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.07947163222007149</v>
+        <v>-0.09086660134495311</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2648736045296207</v>
+        <v>0.2672337182776014</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.002579521407416</v>
+        <v>0.9633047781838678</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09427500244438072</v>
+        <v>0.08396620998342527</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2159317947547253</v>
+        <v>0.2173050269000799</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.064538891186843</v>
+        <v>1.033948102093433</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.4700724376665882</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8.339767267569101</v>
+        <v>8.339767267569107</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.080651238886622</v>
@@ -1297,7 +1297,7 @@
         <v>-0.2847614171745616</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>7.888847064746818</v>
+        <v>7.888847064746813</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.406812266270371</v>
@@ -1306,7 +1306,7 @@
         <v>0.1248319472756582</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>8.180237195030079</v>
+        <v>8.180237195030074</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.12170344655763</v>
+        <v>-1.189255233899128</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.27691121641528</v>
+        <v>-1.317434961350694</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.307860876632724</v>
+        <v>6.102301159875466</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07363916451409465</v>
+        <v>-0.2532226311946433</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.493968939124342</v>
+        <v>-2.706936557000434</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.834335684588242</v>
+        <v>5.837438296517265</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.3334095392579833</v>
+        <v>0.003798599461303672</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.56858564946366</v>
+        <v>-1.205254269473416</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>6.577046230846157</v>
+        <v>6.678525694121359</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.688066021205225</v>
+        <v>2.677805212818082</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.523230633107348</v>
+        <v>2.447021387908614</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.46265217561566</v>
+        <v>10.33399894617459</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.369294702156387</v>
+        <v>4.175879038541105</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.837715958569321</v>
+        <v>1.639522294431952</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.10610943396605</v>
+        <v>9.93689524713391</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.756594685962233</v>
+        <v>2.977809259280543</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.525572203778279</v>
+        <v>1.620496434511131</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.576122981191888</v>
+        <v>9.550451087539081</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.02585622103913253</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.4587268867657668</v>
+        <v>0.4587268867657671</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.07125660189708617</v>
@@ -1402,7 +1402,7 @@
         <v>-0.009752298011326401</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2701713887525253</v>
+        <v>0.2701713887525251</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.05917239346049341</v>
@@ -1411,7 +1411,7 @@
         <v>0.005250597594103719</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3440716473049686</v>
+        <v>0.3440716473049684</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.05848557385879435</v>
+        <v>-0.06142236938092437</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.06773636760454123</v>
+        <v>-0.06946541991943739</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3279103011416926</v>
+        <v>0.3191562190754635</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.003416881779677419</v>
+        <v>-0.008449194641782157</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.08312407615516493</v>
+        <v>-0.08930589638742072</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1944798679983701</v>
+        <v>0.192254271641011</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.01444924252702054</v>
+        <v>-6.440745017469828e-05</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.06420441471696983</v>
+        <v>-0.05025389206240191</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2664796361518271</v>
+        <v>0.2737348495586694</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1573484959306196</v>
+        <v>0.1556975941122652</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1447465410356899</v>
+        <v>0.1456251483392976</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6086107254285834</v>
+        <v>0.6032579352280901</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1565164145041349</v>
+        <v>0.1495802723468224</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.06501843652174323</v>
+        <v>0.05763267772727288</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3644905963523241</v>
+        <v>0.3535504882751097</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1180553114211696</v>
+        <v>0.1294548515637845</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.06651560467563891</v>
+        <v>0.07082622007575708</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4135933619774707</v>
+        <v>0.4155741737044091</v>
       </c>
     </row>
     <row r="28">
